--- a/output2/【河洛話注音】金剛般若波羅蜜經013。如法受持分第十三.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經013。如法受持分第十三.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A593F5-F9B6-4D0C-BC23-602A9B5FA57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F042B001-FBDF-413D-A05E-E6F75B2AB664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1390,10 +1390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ti5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1418,10 +1414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄚㆴ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1446,10 +1438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1482,14 +1470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1506,10 +1486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨㄣ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1538,10 +1514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1562,14 +1534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>un5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1598,10 +1562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1678,10 +1638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lir2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1698,14 +1654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>suat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1714,14 +1662,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hui1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1730,14 +1670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1746,22 +1678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1778,14 +1694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshainn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆮ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tua7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1830,10 +1738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ta1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1854,10 +1758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kian3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1894,10 +1794,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lam5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1906,22 +1802,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hing5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1950,10 +1834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mia7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1974,10 +1854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2002,22 +1878,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ku3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2026,14 +1890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ke7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thann1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2055,6 +1911,150 @@
   </si>
   <si>
     <t>ㄏㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zur2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3865,19 +3865,19 @@
         <v>284</v>
       </c>
       <c r="G4" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" s="98" t="s">
         <v>292</v>
-      </c>
-      <c r="K4" s="98" t="s">
-        <v>294</v>
       </c>
       <c r="L4" s="98"/>
       <c r="M4" s="98"/>
@@ -3937,22 +3937,22 @@
         <v>283</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H6" s="100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I6" s="100" t="s">
+        <v>290</v>
+      </c>
+      <c r="J6" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="K6" s="100" t="s">
         <v>293</v>
-      </c>
-      <c r="K6" s="100" t="s">
-        <v>295</v>
       </c>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
@@ -3989,41 +3989,41 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="98" t="s">
         <v>296</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>298</v>
       </c>
       <c r="F8" s="98"/>
       <c r="G8" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K8" s="98" t="s">
-        <v>308</v>
+        <v>419</v>
       </c>
       <c r="L8" s="98" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M8" s="98"/>
       <c r="N8" s="98"/>
       <c r="O8" s="98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="Q8" s="98"/>
       <c r="R8" s="98" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="102"/>
@@ -4087,41 +4087,41 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="100" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="F10" s="100"/>
       <c r="G10" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H10" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I10" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K10" s="100" t="s">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M10" s="100"/>
       <c r="N10" s="100"/>
       <c r="O10" s="100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P10" s="100" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="100"/>
       <c r="R10" s="100" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="102"/>
@@ -4151,43 +4151,43 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>322</v>
+        <v>422</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H12" s="98"/>
       <c r="I12" s="98" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J12" s="98" t="s">
-        <v>328</v>
+        <v>423</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N12" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O12" s="98"/>
       <c r="P12" s="98"/>
       <c r="Q12" s="98" t="s">
-        <v>308</v>
+        <v>419</v>
       </c>
       <c r="R12" s="98" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="102"/>
@@ -4250,43 +4250,43 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H14" s="100"/>
       <c r="I14" s="100" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="J14" s="100" t="s">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="N14" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O14" s="100"/>
       <c r="P14" s="100"/>
       <c r="Q14" s="100" t="s">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="R14" s="100" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="102"/>
@@ -4316,45 +4316,45 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G16" s="98"/>
       <c r="H16" s="98"/>
       <c r="I16" s="98" t="s">
+        <v>327</v>
+      </c>
+      <c r="J16" s="98" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>314</v>
+      </c>
+      <c r="L16" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="M16" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="N16" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="O16" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="P16" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="J16" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="K16" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="L16" s="98" t="s">
+      <c r="Q16" s="98" t="s">
         <v>338</v>
       </c>
-      <c r="M16" s="98" t="s">
+      <c r="R16" s="98" t="s">
         <v>340</v>
-      </c>
-      <c r="N16" s="98" t="s">
-        <v>342</v>
-      </c>
-      <c r="O16" s="98" t="s">
-        <v>344</v>
-      </c>
-      <c r="P16" s="98" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q16" s="98" t="s">
-        <v>348</v>
-      </c>
-      <c r="R16" s="98" t="s">
-        <v>350</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="102"/>
@@ -4417,45 +4417,45 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F18" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
       <c r="I18" s="100" t="s">
+        <v>425</v>
+      </c>
+      <c r="J18" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="K18" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="L18" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="M18" s="100" t="s">
+        <v>331</v>
+      </c>
+      <c r="N18" s="100" t="s">
+        <v>333</v>
+      </c>
+      <c r="O18" s="100" t="s">
+        <v>335</v>
+      </c>
+      <c r="P18" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="J18" s="100" t="s">
-        <v>325</v>
-      </c>
-      <c r="K18" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="L18" s="100" t="s">
+      <c r="Q18" s="100" t="s">
         <v>339</v>
       </c>
-      <c r="M18" s="100" t="s">
+      <c r="R18" s="100" t="s">
         <v>341</v>
-      </c>
-      <c r="N18" s="100" t="s">
-        <v>343</v>
-      </c>
-      <c r="O18" s="100" t="s">
-        <v>345</v>
-      </c>
-      <c r="P18" s="100" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q18" s="100" t="s">
-        <v>349</v>
-      </c>
-      <c r="R18" s="100" t="s">
-        <v>351</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="102"/>
@@ -4485,43 +4485,43 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E20" s="98"/>
       <c r="F20" s="98" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="J20" s="98"/>
       <c r="K20" s="98" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L20" s="98" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M20" s="98" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N20" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O20" s="98"/>
       <c r="P20" s="98" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="98" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="R20" s="98" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="102"/>
@@ -4584,43 +4584,43 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="100" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G22" s="100" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I22" s="100" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="J22" s="100"/>
       <c r="K22" s="100" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L22" s="100" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M22" s="100" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="N22" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O22" s="100"/>
       <c r="P22" s="100" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="100" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="R22" s="100" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="103"/>
@@ -4650,43 +4650,43 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E24" s="98"/>
       <c r="F24" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H24" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I24" s="98"/>
       <c r="J24" s="98" t="s">
-        <v>308</v>
+        <v>419</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L24" s="98" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M24" s="98" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="N24" s="98" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="P24" s="98" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="98"/>
       <c r="R24" s="98" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4749,43 +4749,43 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="100" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E26" s="100"/>
       <c r="F26" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H26" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I26" s="100"/>
       <c r="J26" s="100" t="s">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="K26" s="100" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="L26" s="100" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M26" s="100" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="N26" s="100" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="O26" s="100" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P26" s="100" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="100"/>
       <c r="R26" s="100" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -4823,44 +4823,44 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="98" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I28" s="98" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="J28" s="98"/>
       <c r="K28" s="98" t="s">
+        <v>327</v>
+      </c>
+      <c r="L28" s="98" t="s">
+        <v>314</v>
+      </c>
+      <c r="M28" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="N28" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="L28" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="M28" s="98" t="s">
-        <v>344</v>
-      </c>
-      <c r="N28" s="98" t="s">
-        <v>346</v>
-      </c>
       <c r="O28" s="98" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P28" s="98" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="R28" s="98"/>
       <c r="S28" s="53"/>
@@ -4932,44 +4932,44 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="100" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="E30" s="100" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H30" s="100" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I30" s="100" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="J30" s="100"/>
       <c r="K30" s="100" t="s">
+        <v>425</v>
+      </c>
+      <c r="L30" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="M30" s="100" t="s">
+        <v>335</v>
+      </c>
+      <c r="N30" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="L30" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="M30" s="100" t="s">
-        <v>345</v>
-      </c>
-      <c r="N30" s="100" t="s">
-        <v>347</v>
-      </c>
       <c r="O30" s="100" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="R30" s="100"/>
       <c r="S30" s="58"/>
@@ -5099,42 +5099,42 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="I36" s="98" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="J36" s="98" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K36" s="98" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L36" s="98"/>
       <c r="M36" s="98" t="s">
         <v>280</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="P36" s="98" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="Q36" s="98" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="R36" s="98" t="s">
         <v>282</v>
@@ -5200,42 +5200,42 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G38" s="100"/>
       <c r="H38" s="100" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="I38" s="100" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="J38" s="100" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K38" s="100" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L38" s="100"/>
       <c r="M38" s="100" t="s">
         <v>281</v>
       </c>
       <c r="N38" s="100" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="P38" s="100" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q38" s="100" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="R38" s="100" t="s">
         <v>283</v>
@@ -5268,35 +5268,35 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E40" s="98"/>
       <c r="F40" s="98"/>
       <c r="G40" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K40" s="98" t="s">
-        <v>308</v>
+        <v>419</v>
       </c>
       <c r="L40" s="98" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M40" s="98"/>
       <c r="N40" s="98"/>
       <c r="O40" s="98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P40" s="98" t="s">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="Q40" s="98"/>
       <c r="R40" s="98" t="s">
@@ -5363,35 +5363,35 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E42" s="100"/>
       <c r="F42" s="100"/>
       <c r="G42" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I42" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J42" s="100" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K42" s="100" t="s">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="L42" s="100" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M42" s="100"/>
       <c r="N42" s="100"/>
       <c r="O42" s="100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P42" s="100" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q42" s="100"/>
       <c r="R42" s="100" t="s">
@@ -5425,41 +5425,41 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="E44" s="98" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G44" s="98" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="H44" s="98"/>
       <c r="I44" s="98"/>
       <c r="J44" s="98"/>
       <c r="K44" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L44" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M44" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N44" s="98"/>
       <c r="O44" s="98" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="P44" s="98" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="Q44" s="98" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="R44" s="98" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5522,41 +5522,41 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="F46" s="100" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G46" s="100" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H46" s="100"/>
       <c r="I46" s="100"/>
       <c r="J46" s="100"/>
       <c r="K46" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L46" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M46" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N46" s="100"/>
       <c r="O46" s="100" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="P46" s="100" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="Q46" s="100" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="R46" s="100" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5587,44 +5587,44 @@
       <c r="C48" s="52"/>
       <c r="D48" s="98"/>
       <c r="E48" s="98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="G48" s="98" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="H48" s="98" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="I48" s="98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J48" s="98" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="K48" s="98" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L48" s="98" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="M48" s="98" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="N48" s="98" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="O48" s="98"/>
       <c r="P48" s="98" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Q48" s="98" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="R48" s="98" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -5688,44 +5688,44 @@
       <c r="C50" s="52"/>
       <c r="D50" s="100"/>
       <c r="E50" s="100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F50" s="100" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="G50" s="100" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="H50" s="100" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="I50" s="100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J50" s="100" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="K50" s="100" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="L50" s="100" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="M50" s="100" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="N50" s="100" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="O50" s="100"/>
       <c r="P50" s="100" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="Q50" s="100" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="R50" s="100" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -5755,36 +5755,36 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="98" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E52" s="98"/>
       <c r="F52" s="98"/>
       <c r="G52" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H52" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J52" s="98" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K52" s="98"/>
       <c r="L52" s="98"/>
       <c r="M52" s="98" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="O52" s="98"/>
       <c r="P52" s="98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q52" s="98" t="s">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="R52" s="98"/>
       <c r="S52" s="53"/>
@@ -5848,36 +5848,36 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="100" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H54" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I54" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J54" s="100" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K54" s="100"/>
       <c r="L54" s="100"/>
       <c r="M54" s="100" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="N54" s="100" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="O54" s="100"/>
       <c r="P54" s="100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q54" s="100" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="R54" s="100"/>
       <c r="S54" s="58"/>
@@ -5910,39 +5910,39 @@
       <c r="D56" s="98"/>
       <c r="E56" s="98"/>
       <c r="F56" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H56" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I56" s="98"/>
       <c r="J56" s="98" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="K56" s="98" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="L56" s="98" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="M56" s="98"/>
       <c r="N56" s="98" t="s">
         <v>280</v>
       </c>
       <c r="O56" s="98" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="P56" s="98" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="Q56" s="98" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="R56" s="98" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="S56" s="53"/>
       <c r="V56" s="69"/>
@@ -6007,39 +6007,39 @@
       <c r="D58" s="100"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G58" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H58" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I58" s="100"/>
       <c r="J58" s="100" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="K58" s="100" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="L58" s="100" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="M58" s="100"/>
       <c r="N58" s="100" t="s">
         <v>281</v>
       </c>
       <c r="O58" s="100" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="P58" s="100" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="Q58" s="100" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="R58" s="100" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="S58" s="58"/>
       <c r="V58" s="69"/>
@@ -6069,45 +6069,45 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="98" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="E60" s="98"/>
       <c r="F60" s="98" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G60" s="98" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H60" s="98" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="I60" s="98" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="J60" s="98"/>
       <c r="K60" s="98" t="s">
         <v>280</v>
       </c>
       <c r="L60" s="98" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="M60" s="98" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="N60" s="98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O60" s="98" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="P60" s="98" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="Q60" s="98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R60" s="98" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6170,45 +6170,45 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="100" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="E62" s="100"/>
       <c r="F62" s="100" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="G62" s="100" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H62" s="100" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="I62" s="100" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="J62" s="100"/>
       <c r="K62" s="100" t="s">
         <v>281</v>
       </c>
       <c r="L62" s="100" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="M62" s="100" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="N62" s="100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="O62" s="100" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="P62" s="100" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="Q62" s="100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="R62" s="100" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6239,16 +6239,16 @@
       <c r="C64" s="52"/>
       <c r="D64" s="98"/>
       <c r="E64" s="98" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F64" s="98" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G64" s="98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H64" s="98" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="I64" s="98"/>
       <c r="J64" s="98"/>
@@ -6304,16 +6304,16 @@
       <c r="C66" s="52"/>
       <c r="D66" s="100"/>
       <c r="E66" s="100" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="F66" s="100" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G66" s="100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H66" s="100" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="I66" s="100"/>
       <c r="J66" s="100"/>
@@ -6353,45 +6353,45 @@
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
       <c r="D68" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E68" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G68" s="98"/>
       <c r="H68" s="98" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="I68" s="98" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="J68" s="98" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K68" s="98" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L68" s="98"/>
       <c r="M68" s="98" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="N68" s="98" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O68" s="98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P68" s="98" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q68" s="98" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="R68" s="98" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
@@ -6454,45 +6454,45 @@
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
       <c r="D70" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E70" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F70" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G70" s="100"/>
       <c r="H70" s="100" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="I70" s="100" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="J70" s="100" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K70" s="100" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L70" s="100"/>
       <c r="M70" s="100" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="N70" s="100" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="O70" s="100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P70" s="100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q70" s="100" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="R70" s="100" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
@@ -6522,39 +6522,39 @@
       <c r="B72" s="65"/>
       <c r="C72" s="52"/>
       <c r="D72" s="98" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="E72" s="98" t="s">
         <v>280</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="G72" s="98" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="H72" s="98"/>
       <c r="I72" s="98"/>
       <c r="J72" s="98"/>
       <c r="K72" s="98" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="L72" s="98" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="M72" s="98"/>
       <c r="N72" s="98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O72" s="98" t="s">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="P72" s="98"/>
       <c r="Q72" s="98" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="R72" s="98" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
@@ -6617,39 +6617,39 @@
       <c r="B74" s="67"/>
       <c r="C74" s="52"/>
       <c r="D74" s="100" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="E74" s="100" t="s">
         <v>281</v>
       </c>
       <c r="F74" s="100" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="G74" s="100" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="H74" s="100"/>
       <c r="I74" s="100"/>
       <c r="J74" s="100"/>
       <c r="K74" s="100" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="L74" s="100" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="M74" s="100"/>
       <c r="N74" s="100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="O74" s="100" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P74" s="100"/>
       <c r="Q74" s="100" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="R74" s="100" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
@@ -6679,41 +6679,41 @@
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
       <c r="D76" s="98" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E76" s="98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F76" s="98" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="G76" s="98" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H76" s="98" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="I76" s="98" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="J76" s="98" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="K76" s="98" t="s">
         <v>280</v>
       </c>
       <c r="L76" s="98" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="M76" s="98"/>
       <c r="N76" s="98" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O76" s="98" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="P76" s="98" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="Q76" s="98"/>
       <c r="R76" s="98" t="s">
@@ -6780,41 +6780,41 @@
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="100" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E78" s="100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F78" s="100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G78" s="100" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="H78" s="100" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="I78" s="100" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="J78" s="100" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="K78" s="100" t="s">
         <v>281</v>
       </c>
       <c r="L78" s="100" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="M78" s="100"/>
       <c r="N78" s="100" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O78" s="100" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="P78" s="100" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="Q78" s="100"/>
       <c r="R78" s="100" t="s">
@@ -6848,45 +6848,45 @@
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
       <c r="D80" s="98" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="E80" s="98" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F80" s="98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G80" s="98" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="H80" s="98" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="I80" s="98" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="J80" s="98"/>
       <c r="K80" s="98" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="L80" s="98" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M80" s="98" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="N80" s="98" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="O80" s="98"/>
       <c r="P80" s="98" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Q80" s="98" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="R80" s="98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S80" s="53"/>
       <c r="V80" s="69"/>
@@ -6949,45 +6949,45 @@
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
       <c r="D82" s="100" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="E82" s="100" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F82" s="100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G82" s="100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H82" s="100" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="I82" s="100" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="J82" s="100"/>
       <c r="K82" s="100" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="L82" s="100" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="M82" s="100" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="N82" s="100" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="O82" s="100"/>
       <c r="P82" s="100" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="Q82" s="100" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="R82" s="100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S82" s="58"/>
       <c r="V82" s="69"/>
@@ -7017,41 +7017,41 @@
       <c r="B84" s="65"/>
       <c r="C84" s="52"/>
       <c r="D84" s="98" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="E84" s="98" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F84" s="98" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="G84" s="98"/>
       <c r="H84" s="98"/>
       <c r="I84" s="98"/>
       <c r="J84" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K84" s="98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L84" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M84" s="98"/>
       <c r="N84" s="98" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="O84" s="98" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="P84" s="98" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="Q84" s="98" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="R84" s="98" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="S84" s="53"/>
       <c r="V84" s="69"/>
@@ -7114,41 +7114,41 @@
       <c r="B86" s="67"/>
       <c r="C86" s="52"/>
       <c r="D86" s="100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E86" s="100" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="F86" s="100" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="G86" s="100"/>
       <c r="H86" s="100"/>
       <c r="I86" s="100"/>
       <c r="J86" s="100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K86" s="100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L86" s="100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M86" s="100"/>
       <c r="N86" s="100" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="O86" s="100" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="P86" s="100" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="Q86" s="100" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="R86" s="100" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="S86" s="58"/>
       <c r="V86" s="69"/>
@@ -7179,41 +7179,41 @@
       <c r="C88" s="52"/>
       <c r="D88" s="98"/>
       <c r="E88" s="98" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="F88" s="98" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G88" s="98" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="H88" s="98"/>
       <c r="I88" s="98" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="J88" s="98" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="K88" s="98" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="L88" s="98" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="M88" s="98" t="s">
-        <v>328</v>
+        <v>423</v>
       </c>
       <c r="N88" s="98" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="O88" s="98" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="P88" s="98" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="Q88" s="98" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="R88" s="98"/>
       <c r="S88" s="53"/>
@@ -7278,41 +7278,41 @@
       <c r="C90" s="52"/>
       <c r="D90" s="100"/>
       <c r="E90" s="100" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="F90" s="100" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G90" s="100" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="H90" s="100"/>
       <c r="I90" s="100" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="J90" s="100" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="K90" s="100" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="L90" s="100" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="M90" s="100" t="s">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="N90" s="100" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="O90" s="100" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="P90" s="100" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="Q90" s="100" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="R90" s="100"/>
       <c r="S90" s="58"/>
@@ -7343,45 +7343,45 @@
       <c r="B92" s="65"/>
       <c r="C92" s="52"/>
       <c r="D92" s="98" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="F92" s="98" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="G92" s="98" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="H92" s="98"/>
       <c r="I92" s="98" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="J92" s="98" t="s">
-        <v>322</v>
+        <v>422</v>
       </c>
       <c r="K92" s="98" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L92" s="98" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="M92" s="98"/>
       <c r="N92" s="98" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="O92" s="98" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P92" s="98" t="s">
         <v>284</v>
       </c>
       <c r="Q92" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R92" s="98" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="S92" s="53"/>
       <c r="V92" s="69"/>
@@ -7444,45 +7444,45 @@
       <c r="B94" s="67"/>
       <c r="C94" s="52"/>
       <c r="D94" s="100" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E94" s="100" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="F94" s="100" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="G94" s="100" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="H94" s="100"/>
       <c r="I94" s="100" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="J94" s="100" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K94" s="100" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L94" s="100" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="M94" s="100"/>
       <c r="N94" s="100" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="O94" s="100" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="P94" s="100" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
       <c r="Q94" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R94" s="100" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="S94" s="58"/>
       <c r="V94" s="69"/>
@@ -7512,39 +7512,39 @@
       <c r="B96" s="65"/>
       <c r="C96" s="52"/>
       <c r="D96" s="98" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="E96" s="98" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F96" s="98" t="s">
-        <v>328</v>
+        <v>423</v>
       </c>
       <c r="G96" s="98"/>
       <c r="H96" s="98" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I96" s="98" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="J96" s="98" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="K96" s="98" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L96" s="98"/>
       <c r="M96" s="98" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="N96" s="98" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="O96" s="98" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="P96" s="98" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="Q96" s="98"/>
       <c r="R96" s="98"/>
@@ -7609,39 +7609,39 @@
       <c r="B98" s="67"/>
       <c r="C98" s="52"/>
       <c r="D98" s="100" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="E98" s="100" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F98" s="100" t="s">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="G98" s="100"/>
       <c r="H98" s="100" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I98" s="100" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="J98" s="100" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="K98" s="100" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="L98" s="100"/>
       <c r="M98" s="100" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="N98" s="100" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="O98" s="100" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="P98" s="100" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="Q98" s="100"/>
       <c r="R98" s="100"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經013。如法受持分第十三.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經013。如法受持分第十三.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F042B001-FBDF-413D-A05E-E6F75B2AB664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{887F92C9-B680-458E-B1F2-8A837FB95090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="454">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1349,712 +1349,721 @@
     <t>身</t>
   </si>
   <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>施</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>他</t>
+  </si>
+  <si>
+    <t>其</t>
+  </si>
+  <si>
+    <t>福</t>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pho1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ni2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>命</t>
-  </si>
-  <si>
-    <t>布</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>他</t>
-  </si>
-  <si>
-    <t>其</t>
-  </si>
-  <si>
-    <t>福</t>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆰ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>piat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tng1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆭ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆬ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆩ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lir2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sian6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sua1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆩ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄥ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2062,7 +2071,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78">
+  <fonts count="79">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2607,6 +2616,14 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2807,7 +2824,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3098,6 +3115,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3790,9 +3810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:R166"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -3849,35 +3867,35 @@
       <c r="R3" s="99"/>
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="101" t="s">
+      <c r="V3" s="102" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="98" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="J4" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="K4" s="98" t="s">
         <v>285</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>287</v>
-      </c>
-      <c r="I4" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="J4" s="98" t="s">
-        <v>417</v>
-      </c>
-      <c r="K4" s="98" t="s">
-        <v>292</v>
       </c>
       <c r="L4" s="98"/>
       <c r="M4" s="98"/>
@@ -3887,7 +3905,7 @@
       <c r="Q4" s="98"/>
       <c r="R4" s="98"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="102"/>
+      <c r="V4" s="103"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
@@ -3925,34 +3943,34 @@
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="102"/>
+      <c r="V5" s="103"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="H6" s="100" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
       <c r="J6" s="100" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="K6" s="100" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
@@ -3962,7 +3980,7 @@
       <c r="Q6" s="100"/>
       <c r="R6" s="100"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="102"/>
+      <c r="V6" s="103"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
@@ -3983,50 +4001,50 @@
       <c r="Q7" s="99"/>
       <c r="R7" s="99"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="103"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="98" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F8" s="98"/>
       <c r="G8" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="K8" s="98" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="L8" s="98" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="M8" s="98"/>
       <c r="N8" s="98"/>
       <c r="O8" s="98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="98"/>
       <c r="R8" s="98" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="103"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -4081,50 +4099,50 @@
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="103"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="100" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="F10" s="100"/>
       <c r="G10" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="H10" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I10" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="K10" s="100" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M10" s="100"/>
       <c r="N10" s="100"/>
       <c r="O10" s="100" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="P10" s="100" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="100"/>
       <c r="R10" s="100" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="103"/>
     </row>
     <row r="11" spans="2:22" s="79" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="77"/>
@@ -4145,52 +4163,52 @@
       <c r="Q11" s="99"/>
       <c r="R11" s="99"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="103"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="H12" s="98"/>
       <c r="I12" s="98" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="J12" s="98" t="s">
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="N12" s="98" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="O12" s="98"/>
       <c r="P12" s="98"/>
       <c r="Q12" s="98" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="R12" s="98" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="102"/>
+      <c r="V12" s="103"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4244,52 +4262,52 @@
         <v>236</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="103"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>318</v>
+        <v>401</v>
       </c>
       <c r="H14" s="100"/>
       <c r="I14" s="100" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="J14" s="100" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="N14" s="100" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="O14" s="100"/>
       <c r="P14" s="100"/>
       <c r="Q14" s="100" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="R14" s="100" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="S14" s="58"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="103"/>
     </row>
     <row r="15" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="74"/>
@@ -4310,54 +4328,54 @@
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
       <c r="S15" s="81"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="103"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G16" s="98"/>
       <c r="H16" s="98"/>
       <c r="I16" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="J16" s="98" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="L16" s="98" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="M16" s="98" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="N16" s="98" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="O16" s="98" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="P16" s="98" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="98" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="R16" s="98" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="S16" s="53"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="103"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="66">
@@ -4411,54 +4429,54 @@
         <v>222</v>
       </c>
       <c r="S17" s="54"/>
-      <c r="V17" s="102"/>
+      <c r="V17" s="103"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F18" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
       <c r="I18" s="100" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="J18" s="100" t="s">
-        <v>318</v>
+        <v>401</v>
       </c>
       <c r="K18" s="100" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="L18" s="100" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="M18" s="100" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="N18" s="100" t="s">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="O18" s="100" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="P18" s="100" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="100" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="R18" s="100" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="S18" s="58"/>
-      <c r="V18" s="102"/>
+      <c r="V18" s="103"/>
     </row>
     <row r="19" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="74"/>
@@ -4479,52 +4497,52 @@
       <c r="Q19" s="99"/>
       <c r="R19" s="99"/>
       <c r="S19" s="81"/>
-      <c r="V19" s="102"/>
+      <c r="V19" s="103"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="E20" s="98"/>
       <c r="F20" s="98" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="J20" s="98"/>
       <c r="K20" s="98" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="L20" s="98" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="M20" s="98" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="N20" s="98" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="O20" s="98"/>
       <c r="P20" s="98" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="98" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="R20" s="98" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="S20" s="53"/>
-      <c r="V20" s="102"/>
+      <c r="V20" s="103"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="66">
@@ -4578,52 +4596,52 @@
         <v>245</v>
       </c>
       <c r="S21" s="54"/>
-      <c r="V21" s="102"/>
+      <c r="V21" s="103"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="100" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="G22" s="100" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="I22" s="100" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="J22" s="100"/>
       <c r="K22" s="100" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="L22" s="100" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="M22" s="100" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="N22" s="100" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="O22" s="100"/>
       <c r="P22" s="100" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="100" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="R22" s="100" t="s">
-        <v>428</v>
+        <v>365</v>
       </c>
       <c r="S22" s="58"/>
-      <c r="V22" s="103"/>
+      <c r="V22" s="104"/>
     </row>
     <row r="23" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="74"/>
@@ -4650,43 +4668,43 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="E24" s="98"/>
       <c r="F24" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H24" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="I24" s="98"/>
       <c r="J24" s="98" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="L24" s="98" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="M24" s="98" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="N24" s="98" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="P24" s="98" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="98"/>
       <c r="R24" s="98" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4749,48 +4767,48 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="100" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E26" s="100"/>
       <c r="F26" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H26" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="I26" s="100"/>
       <c r="J26" s="100" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="K26" s="100" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="L26" s="100" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="M26" s="100" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="N26" s="100" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="O26" s="100" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="P26" s="100" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="100"/>
       <c r="R26" s="100" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
         <f xml:space="preserve"> MID($N$26,3,1)</f>
-        <v>˙</v>
+        <v>ˉ</v>
       </c>
       <c r="V26" s="69"/>
     </row>
@@ -4823,44 +4841,44 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="98" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="I28" s="98" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="J28" s="98"/>
       <c r="K28" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="L28" s="98" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="M28" s="98" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="N28" s="98" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="O28" s="98" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="P28" s="98" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="R28" s="98"/>
       <c r="S28" s="53"/>
@@ -4932,44 +4950,44 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="100" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="E30" s="100" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="H30" s="100" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="I30" s="100" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="J30" s="100"/>
       <c r="K30" s="100" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="N30" s="100" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="O30" s="100" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="R30" s="100"/>
       <c r="S30" s="58"/>
@@ -5099,45 +5117,45 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98" t="s">
-        <v>431</v>
+        <v>368</v>
       </c>
       <c r="I36" s="98" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="J36" s="98" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="K36" s="98" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="L36" s="98"/>
       <c r="M36" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="P36" s="98" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="Q36" s="98" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="R36" s="98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5200,45 +5218,45 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G38" s="100"/>
       <c r="H38" s="100" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="I38" s="100" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="J38" s="100" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="K38" s="100" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="L38" s="100"/>
       <c r="M38" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N38" s="100" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="P38" s="100" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="Q38" s="100" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="R38" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5246,7 +5264,9 @@
     <row r="39" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="74"/>
       <c r="C39" s="80"/>
-      <c r="D39" s="99"/>
+      <c r="D39" s="99" t="s">
+        <v>449</v>
+      </c>
       <c r="E39" s="99"/>
       <c r="F39" s="99"/>
       <c r="G39" s="99"/>
@@ -5268,39 +5288,39 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="E40" s="98"/>
       <c r="F40" s="98"/>
       <c r="G40" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="K40" s="98" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="L40" s="98" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="M40" s="98"/>
       <c r="N40" s="98"/>
       <c r="O40" s="98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="P40" s="98" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="Q40" s="98"/>
       <c r="R40" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5363,39 +5383,39 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>358</v>
+        <v>451</v>
       </c>
       <c r="E42" s="100"/>
       <c r="F42" s="100"/>
       <c r="G42" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I42" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="J42" s="100" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="K42" s="100" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="L42" s="100" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M42" s="100"/>
       <c r="N42" s="100"/>
       <c r="O42" s="100" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="P42" s="100" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="Q42" s="100"/>
       <c r="R42" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5425,41 +5445,41 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="E44" s="98" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="G44" s="98" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="H44" s="98"/>
       <c r="I44" s="98"/>
       <c r="J44" s="98"/>
       <c r="K44" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L44" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M44" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N44" s="98"/>
       <c r="O44" s="98" t="s">
-        <v>431</v>
+        <v>368</v>
       </c>
       <c r="P44" s="98" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="Q44" s="98" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="R44" s="98" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5522,41 +5542,41 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="F46" s="100" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="G46" s="100" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="H46" s="100"/>
       <c r="I46" s="100"/>
       <c r="J46" s="100"/>
       <c r="K46" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="L46" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M46" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="N46" s="100"/>
       <c r="O46" s="100" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="P46" s="100" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="Q46" s="100" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="R46" s="100" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5587,44 +5607,44 @@
       <c r="C48" s="52"/>
       <c r="D48" s="98"/>
       <c r="E48" s="98" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="G48" s="98" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="H48" s="98" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="I48" s="98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J48" s="98" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="K48" s="98" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="L48" s="98" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="M48" s="98" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="N48" s="98" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="O48" s="98"/>
       <c r="P48" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="Q48" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="R48" s="98" t="s">
         <v>328</v>
-      </c>
-      <c r="R48" s="98" t="s">
-        <v>369</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -5688,44 +5708,44 @@
       <c r="C50" s="52"/>
       <c r="D50" s="100"/>
       <c r="E50" s="100" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="F50" s="100" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="G50" s="100" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="H50" s="100" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="I50" s="100" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="J50" s="100" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="K50" s="100" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="L50" s="100" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="M50" s="100" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="N50" s="100" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="O50" s="100"/>
       <c r="P50" s="100" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="Q50" s="100" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="R50" s="100" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -5733,7 +5753,9 @@
     <row r="51" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="74"/>
       <c r="C51" s="80"/>
-      <c r="D51" s="99"/>
+      <c r="D51" s="99" t="s">
+        <v>449</v>
+      </c>
       <c r="E51" s="99"/>
       <c r="F51" s="99"/>
       <c r="G51" s="99"/>
@@ -5755,36 +5777,36 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="98" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="E52" s="98"/>
       <c r="F52" s="98"/>
       <c r="G52" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H52" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J52" s="98" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="K52" s="98"/>
       <c r="L52" s="98"/>
       <c r="M52" s="98" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="O52" s="98"/>
       <c r="P52" s="98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="Q52" s="98" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="R52" s="98"/>
       <c r="S52" s="53"/>
@@ -5848,36 +5870,36 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="100" t="s">
-        <v>358</v>
+        <v>451</v>
       </c>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="H54" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I54" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="J54" s="100" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="K54" s="100"/>
       <c r="L54" s="100"/>
       <c r="M54" s="100" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="N54" s="100" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="O54" s="100"/>
       <c r="P54" s="100" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="Q54" s="100" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="R54" s="100"/>
       <c r="S54" s="58"/>
@@ -5910,39 +5932,39 @@
       <c r="D56" s="98"/>
       <c r="E56" s="98"/>
       <c r="F56" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H56" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="I56" s="98"/>
       <c r="J56" s="98" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="K56" s="98" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="L56" s="98" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="M56" s="98"/>
       <c r="N56" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O56" s="98" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="P56" s="98" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="Q56" s="98" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="R56" s="98" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="S56" s="53"/>
       <c r="V56" s="69"/>
@@ -6007,39 +6029,39 @@
       <c r="D58" s="100"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="G58" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H58" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="I58" s="100"/>
       <c r="J58" s="100" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="K58" s="100" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="L58" s="100" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="M58" s="100"/>
       <c r="N58" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O58" s="100" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="P58" s="100" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="Q58" s="100" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="R58" s="100" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="S58" s="58"/>
       <c r="V58" s="69"/>
@@ -6069,45 +6091,45 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="98" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="E60" s="98"/>
       <c r="F60" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="G60" s="98" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="H60" s="98" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="I60" s="98" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="J60" s="98"/>
       <c r="K60" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L60" s="98" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="M60" s="98" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="N60" s="98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="O60" s="98" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="P60" s="98" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="Q60" s="98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="R60" s="98" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6170,45 +6192,45 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="100" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="E62" s="100"/>
       <c r="F62" s="100" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="G62" s="100" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="H62" s="100" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="I62" s="100" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="J62" s="100"/>
       <c r="K62" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L62" s="100" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="M62" s="100" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="N62" s="100" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="O62" s="100" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="P62" s="100" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="Q62" s="100" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="R62" s="100" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6239,16 +6261,16 @@
       <c r="C64" s="52"/>
       <c r="D64" s="98"/>
       <c r="E64" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="F64" s="98" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="G64" s="98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="H64" s="98" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="I64" s="98"/>
       <c r="J64" s="98"/>
@@ -6304,16 +6326,16 @@
       <c r="C66" s="52"/>
       <c r="D66" s="100"/>
       <c r="E66" s="100" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="F66" s="100" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="G66" s="100" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="H66" s="100" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="I66" s="100"/>
       <c r="J66" s="100"/>
@@ -6353,45 +6375,45 @@
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
       <c r="D68" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E68" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G68" s="98"/>
       <c r="H68" s="98" t="s">
-        <v>431</v>
+        <v>368</v>
       </c>
       <c r="I68" s="98" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="J68" s="98" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="K68" s="98" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="L68" s="98"/>
       <c r="M68" s="98" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="N68" s="98" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="O68" s="98" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P68" s="98" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="Q68" s="98" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="R68" s="98" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
@@ -6454,45 +6476,45 @@
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
       <c r="D70" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="E70" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F70" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G70" s="100"/>
       <c r="H70" s="100" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="I70" s="100" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="J70" s="100" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="K70" s="100" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="L70" s="100"/>
       <c r="M70" s="100" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="N70" s="100" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="O70" s="100" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="P70" s="100" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="Q70" s="100" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="R70" s="100" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
@@ -6503,7 +6525,9 @@
       <c r="D71" s="99"/>
       <c r="E71" s="99"/>
       <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
+      <c r="G71" s="99" t="s">
+        <v>449</v>
+      </c>
       <c r="H71" s="99"/>
       <c r="I71" s="99"/>
       <c r="J71" s="99"/>
@@ -6522,39 +6546,39 @@
       <c r="B72" s="65"/>
       <c r="C72" s="52"/>
       <c r="D72" s="98" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E72" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="G72" s="98" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="H72" s="98"/>
       <c r="I72" s="98"/>
       <c r="J72" s="98"/>
       <c r="K72" s="98" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="L72" s="98" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="M72" s="98"/>
       <c r="N72" s="98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="O72" s="98" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="P72" s="98"/>
       <c r="Q72" s="98" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="R72" s="98" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
@@ -6617,39 +6641,39 @@
       <c r="B74" s="67"/>
       <c r="C74" s="52"/>
       <c r="D74" s="100" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="E74" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F74" s="100" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="G74" s="100" t="s">
-        <v>358</v>
+        <v>451</v>
       </c>
       <c r="H74" s="100"/>
       <c r="I74" s="100"/>
       <c r="J74" s="100"/>
       <c r="K74" s="100" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="L74" s="100" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="M74" s="100"/>
       <c r="N74" s="100" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="O74" s="100" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="P74" s="100"/>
       <c r="Q74" s="100" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="R74" s="100" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
@@ -6679,45 +6703,45 @@
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
       <c r="D76" s="98" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="E76" s="98" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F76" s="98" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="G76" s="98" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="H76" s="98" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="I76" s="98" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="J76" s="98" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="K76" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L76" s="98" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="M76" s="98"/>
       <c r="N76" s="98" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="O76" s="98" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="P76" s="98" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="Q76" s="98"/>
       <c r="R76" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S76" s="53"/>
       <c r="V76" s="69"/>
@@ -6780,45 +6804,45 @@
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="100" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="E78" s="100" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="F78" s="100" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="G78" s="100" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="H78" s="100" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="I78" s="100" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="J78" s="100" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="K78" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L78" s="100" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="M78" s="100"/>
       <c r="N78" s="100" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="O78" s="100" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="P78" s="100" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="Q78" s="100"/>
       <c r="R78" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S78" s="58"/>
       <c r="V78" s="69"/>
@@ -6848,45 +6872,45 @@
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
       <c r="D80" s="98" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="E80" s="98" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="F80" s="98" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G80" s="98" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="H80" s="98" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="I80" s="98" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="J80" s="98"/>
       <c r="K80" s="98" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="L80" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="M80" s="98" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="N80" s="98" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="O80" s="98"/>
       <c r="P80" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="Q80" s="98" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="R80" s="98" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="S80" s="53"/>
       <c r="V80" s="69"/>
@@ -6949,45 +6973,45 @@
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
       <c r="D82" s="100" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="E82" s="100" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="F82" s="100" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="G82" s="100" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="H82" s="100" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="I82" s="100" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="J82" s="100"/>
       <c r="K82" s="100" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
       <c r="L82" s="100" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="M82" s="100" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="N82" s="100" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="O82" s="100"/>
       <c r="P82" s="100" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="Q82" s="100" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="R82" s="100" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="S82" s="58"/>
       <c r="V82" s="69"/>
@@ -7017,41 +7041,41 @@
       <c r="B84" s="65"/>
       <c r="C84" s="52"/>
       <c r="D84" s="98" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="E84" s="98" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="F84" s="98" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="G84" s="98"/>
       <c r="H84" s="98"/>
       <c r="I84" s="98"/>
       <c r="J84" s="98" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K84" s="98" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L84" s="98" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M84" s="98"/>
       <c r="N84" s="98" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="O84" s="98" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="P84" s="98" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="Q84" s="98" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="R84" s="98" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="S84" s="53"/>
       <c r="V84" s="69"/>
@@ -7114,41 +7138,41 @@
       <c r="B86" s="67"/>
       <c r="C86" s="52"/>
       <c r="D86" s="100" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="E86" s="100" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="F86" s="100" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G86" s="100"/>
       <c r="H86" s="100"/>
       <c r="I86" s="100"/>
       <c r="J86" s="100" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="K86" s="100" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="L86" s="100" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M86" s="100"/>
       <c r="N86" s="100" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="O86" s="100" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="P86" s="100" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="Q86" s="100" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="R86" s="100" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="S86" s="58"/>
       <c r="V86" s="69"/>
@@ -7179,41 +7203,41 @@
       <c r="C88" s="52"/>
       <c r="D88" s="98"/>
       <c r="E88" s="98" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="F88" s="98" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="G88" s="98" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="H88" s="98"/>
       <c r="I88" s="98" t="s">
+        <v>314</v>
+      </c>
+      <c r="J88" s="98" t="s">
+        <v>339</v>
+      </c>
+      <c r="K88" s="98" t="s">
+        <v>341</v>
+      </c>
+      <c r="L88" s="98" t="s">
+        <v>437</v>
+      </c>
+      <c r="M88" s="98" t="s">
+        <v>361</v>
+      </c>
+      <c r="N88" s="98" t="s">
+        <v>343</v>
+      </c>
+      <c r="O88" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="P88" s="98" t="s">
         <v>344</v>
       </c>
-      <c r="J88" s="98" t="s">
-        <v>389</v>
-      </c>
-      <c r="K88" s="98" t="s">
-        <v>391</v>
-      </c>
-      <c r="L88" s="98" t="s">
-        <v>393</v>
-      </c>
-      <c r="M88" s="98" t="s">
-        <v>423</v>
-      </c>
-      <c r="N88" s="98" t="s">
-        <v>395</v>
-      </c>
-      <c r="O88" s="98" t="s">
-        <v>396</v>
-      </c>
-      <c r="P88" s="98" t="s">
-        <v>398</v>
-      </c>
       <c r="Q88" s="98" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="R88" s="98"/>
       <c r="S88" s="53"/>
@@ -7258,14 +7282,14 @@
       <c r="N89" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="O89" s="95" t="s">
+      <c r="O89" s="101" t="s">
+        <v>450</v>
+      </c>
+      <c r="P89" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="P89" s="95" t="s">
+      <c r="Q89" s="95" t="s">
         <v>274</v>
-      </c>
-      <c r="Q89" s="95" t="s">
-        <v>275</v>
       </c>
       <c r="R89" s="95" t="s">
         <v>167</v>
@@ -7278,41 +7302,41 @@
       <c r="C90" s="52"/>
       <c r="D90" s="100"/>
       <c r="E90" s="100" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F90" s="100" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="G90" s="100" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="H90" s="100"/>
       <c r="I90" s="100" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="J90" s="100" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="K90" s="100" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="L90" s="100" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="M90" s="100" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="N90" s="100" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="O90" s="100" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="P90" s="100" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="Q90" s="100" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="R90" s="100"/>
       <c r="S90" s="58"/>
@@ -7343,45 +7367,45 @@
       <c r="B92" s="65"/>
       <c r="C92" s="52"/>
       <c r="D92" s="98" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="F92" s="98" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="G92" s="98" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="H92" s="98"/>
       <c r="I92" s="98" t="s">
-        <v>431</v>
+        <v>368</v>
       </c>
       <c r="J92" s="98" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="K92" s="98" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="L92" s="98" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="M92" s="98"/>
       <c r="N92" s="98" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="O92" s="98" t="s">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="P92" s="98" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="Q92" s="98" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="R92" s="98" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="S92" s="53"/>
       <c r="V92" s="69"/>
@@ -7417,7 +7441,7 @@
         <v>211</v>
       </c>
       <c r="L93" s="95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M93" s="95" t="s">
         <v>167</v>
@@ -7444,45 +7468,45 @@
       <c r="B94" s="67"/>
       <c r="C94" s="52"/>
       <c r="D94" s="100" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="E94" s="100" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="F94" s="100" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="G94" s="100" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="H94" s="100"/>
       <c r="I94" s="100" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="J94" s="100" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="K94" s="100" t="s">
-        <v>318</v>
+        <v>401</v>
       </c>
       <c r="L94" s="100" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="M94" s="100"/>
       <c r="N94" s="100" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="O94" s="100" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P94" s="100" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="Q94" s="100" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="R94" s="100" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="S94" s="58"/>
       <c r="V94" s="69"/>
@@ -7512,39 +7536,39 @@
       <c r="B96" s="65"/>
       <c r="C96" s="52"/>
       <c r="D96" s="98" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="E96" s="98" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="F96" s="98" t="s">
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="G96" s="98"/>
       <c r="H96" s="98" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="I96" s="98" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="J96" s="98" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="K96" s="98" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="L96" s="98"/>
       <c r="M96" s="98" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
       <c r="N96" s="98" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="O96" s="98" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="P96" s="98" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="Q96" s="98"/>
       <c r="R96" s="98"/>
@@ -7573,7 +7597,7 @@
         <v>202</v>
       </c>
       <c r="I97" s="95" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J97" s="95" t="s">
         <v>200</v>
@@ -7585,10 +7609,10 @@
         <v>167</v>
       </c>
       <c r="M97" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="N97" s="95" t="s">
         <v>278</v>
-      </c>
-      <c r="N97" s="95" t="s">
-        <v>279</v>
       </c>
       <c r="O97" s="95" t="s">
         <v>258</v>
@@ -7609,39 +7633,39 @@
       <c r="B98" s="67"/>
       <c r="C98" s="52"/>
       <c r="D98" s="100" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="E98" s="100" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F98" s="100" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="G98" s="100"/>
       <c r="H98" s="100" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I98" s="100" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="J98" s="100" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="K98" s="100" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="L98" s="100"/>
       <c r="M98" s="100" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="N98" s="100" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="O98" s="100" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="P98" s="100" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="Q98" s="100"/>
       <c r="R98" s="100"/>
@@ -9210,7 +9234,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="105" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9228,7 +9252,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="105" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9253,7 +9277,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="105"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -9273,7 +9297,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="105"/>
+      <c r="I6" s="106"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -9295,7 +9319,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="105"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9311,7 +9335,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="105"/>
+      <c r="I7" s="106"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9333,7 +9357,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="105"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9349,7 +9373,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="106"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9371,7 +9395,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9387,7 +9411,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="105"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9409,7 +9433,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="106"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9425,7 +9449,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="107"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9448,7 +9472,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="105" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9466,7 +9490,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="105" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -9490,7 +9514,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="105"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -9510,7 +9534,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="105"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -9530,7 +9554,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="105"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9544,7 +9568,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9564,7 +9588,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="105"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9578,7 +9602,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="105"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9598,7 +9622,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="105"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9612,7 +9636,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="105"/>
+      <c r="I15" s="106"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9632,7 +9656,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="106"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -9646,7 +9670,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="107"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經013。如法受持分第十三.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經013。如法受持分第十三.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887F92C9-B680-458E-B1F2-8A837FB95090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B46ED6-15AE-43D3-96A6-4C24C79B9956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -3810,7 +3810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
